--- a/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.878389394605382</v>
+        <v>2.868989626005192</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.643832372164795</v>
+        <v>2.732248312866699</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.785750942409832</v>
+        <v>4.831388937407418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.169863432519129</v>
+        <v>2.20515073620262</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.788572085741981</v>
+        <v>2.257404426247399</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.093800610071653</v>
+        <v>4.311018328965114</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.519198086417028</v>
+        <v>3.427905174216375</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.166744412120548</v>
+        <v>3.37517301050675</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.196321949440601</v>
+        <v>5.393101233791199</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.376693360295823</v>
+        <v>9.111196387760053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.722730007985398</v>
+        <v>8.851656695190947</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.70407206277845</v>
+        <v>10.69913594804367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.6859964803013</v>
+        <v>8.943915381611285</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.761022574611408</v>
+        <v>8.871118919207623</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.605905495030822</v>
+        <v>9.709322725266295</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.30072859531413</v>
+        <v>8.115638822219919</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.790116967448128</v>
+        <v>7.82478868018841</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.327588768173097</v>
+        <v>9.535250692184905</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4159791600202401</v>
+        <v>0.4196833809042761</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.350206051699217</v>
+        <v>0.3521569869723385</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6658645772483834</v>
+        <v>0.6538026032298521</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2240163963377416</v>
+        <v>0.2209313396941807</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1887561614887631</v>
+        <v>0.2165177459105042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3901074563197976</v>
+        <v>0.4195781350392991</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4223466365952993</v>
+        <v>0.42244535226781</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3756708265478844</v>
+        <v>0.3924609713311967</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6304249402841559</v>
+        <v>0.6370960995834615</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.033583781851291</v>
+        <v>1.933513881414611</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.964481716402273</v>
+        <v>1.844960542438387</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.331530071861927</v>
+        <v>2.29327087927487</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.266821028680967</v>
+        <v>1.327180433074714</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.310139650961576</v>
+        <v>1.250594214878664</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.414984709783927</v>
+        <v>1.391581430481247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.331221918590676</v>
+        <v>1.310004786211926</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.226953951189198</v>
+        <v>1.255349865727567</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.524484557461386</v>
+        <v>1.545875235825661</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.456047389488123</v>
+        <v>1.719003638307637</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.314413353679552</v>
+        <v>1.283450807948059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.897625360858897</v>
+        <v>2.950314244528588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.5984094887162663</v>
+        <v>-0.1956975882706101</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1545659901036131</v>
+        <v>0.07975966156088431</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.861766956413065</v>
+        <v>1.691101097963398</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.559563943675216</v>
+        <v>1.488322431073747</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.328439244476108</v>
+        <v>1.50075875108171</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.792847984338863</v>
+        <v>3.047172966100954</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.745497090727254</v>
+        <v>6.891407249841149</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.208215727313373</v>
+        <v>6.281150455296553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.460571448709628</v>
+        <v>7.881385102609448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.042437998915738</v>
+        <v>5.141208763917677</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.803367926659296</v>
+        <v>5.696788564122192</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.982837949011476</v>
+        <v>6.725781339483458</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.226380587293984</v>
+        <v>5.266215056036343</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.128320824420538</v>
+        <v>5.364166306913704</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.37248048508319</v>
+        <v>6.27673326156165</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.4444861828626496</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6416772229150347</v>
+        <v>0.6416772229150345</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1929278956571007</v>
+        <v>0.2389219111070944</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.174384185336207</v>
+        <v>0.1756292308264231</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3936840734235702</v>
+        <v>0.4012495695269728</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06295139071499328</v>
+        <v>-0.02353728251857573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01967505082858641</v>
+        <v>0.008598916486667116</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1738522196239559</v>
+        <v>0.158134563048654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1728150899856204</v>
+        <v>0.1744482929278196</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1531296961974156</v>
+        <v>0.1800165802457802</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3206487103933886</v>
+        <v>0.3512852256814464</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.427965572912269</v>
+        <v>1.409751759429466</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.35080952178961</v>
+        <v>1.353220750164861</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.547972504182255</v>
+        <v>1.68550011906996</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6458079271758207</v>
+        <v>0.6670825695896566</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7561624357998726</v>
+        <v>0.724588751741353</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9758358733154935</v>
+        <v>0.8660754868731592</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7944818598665228</v>
+        <v>0.8064052619311471</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7607722680667107</v>
+        <v>0.8121342383345242</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9664868995928177</v>
+        <v>0.9622204719912448</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>4.004589118735838</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.441127721691122</v>
+        <v>6.441127721691125</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>5.327327690328238</v>
@@ -1083,7 +1083,7 @@
         <v>0.4396791095908209</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.055183095569297</v>
+        <v>4.055183095569295</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.480652874798897</v>
@@ -1092,7 +1092,7 @@
         <v>2.204738197525052</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.243002213910926</v>
+        <v>5.24300221391093</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.023402025438376</v>
+        <v>0.8638835096365809</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.015325720481709</v>
+        <v>1.010893889576151</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.63182782813516</v>
+        <v>3.662242867236686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.116464936914927</v>
+        <v>2.269465294794857</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.429016587148323</v>
+        <v>-2.3814732423338</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.17363898994795</v>
+        <v>1.185814120763962</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.152893052443774</v>
+        <v>2.39891646037359</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2637852447317937</v>
+        <v>0.1975437096892915</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.452455845619341</v>
+        <v>3.004350487897422</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.664931077708415</v>
+        <v>6.526627018100065</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.702667410998207</v>
+        <v>6.673008823587981</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.480386853968485</v>
+        <v>9.553139482450215</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.360745883700947</v>
+        <v>8.473148964294026</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.364638928306497</v>
+        <v>3.389108966930133</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.694161439600775</v>
+        <v>6.83889110001373</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.648197946383143</v>
+        <v>6.706795529332261</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.144185608183242</v>
+        <v>4.261060523727056</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.302554717715911</v>
+        <v>7.292520151579901</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.7284481680325866</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.171662697423244</v>
+        <v>1.171662697423245</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7194874272260432</v>
@@ -1188,7 +1188,7 @@
         <v>0.05938129016145542</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5476767005826756</v>
+        <v>0.5476767005826754</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6941784000071863</v>
@@ -1197,7 +1197,7 @@
         <v>0.3415755866741542</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8122876263317264</v>
+        <v>0.812287626331727</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1378019597905905</v>
+        <v>0.0976396748375635</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1344578157216847</v>
+        <v>0.135808139675448</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5046570367455639</v>
+        <v>0.5369865450637774</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2324621356588367</v>
+        <v>0.24395896437837</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2808186724678933</v>
+        <v>-0.2747096876374692</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.119885316772871</v>
+        <v>0.1272423457117729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.280547236502328</v>
+        <v>0.3009569121071926</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.03587754713886241</v>
+        <v>0.02063010391321688</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4583406704628962</v>
+        <v>0.3994771565942371</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.555293416806097</v>
+        <v>1.482827782981873</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.585771848124597</v>
+        <v>1.588591176219409</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.204384111462368</v>
+        <v>2.309274437734536</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.412675797763734</v>
+        <v>1.394102374910235</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5580044929827086</v>
+        <v>0.520314633323977</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.090767745091096</v>
+        <v>1.137708559948714</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.215411636549155</v>
+        <v>1.19569507640455</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7664872752551261</v>
+        <v>0.7761769720976178</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.345723789108569</v>
+        <v>1.335386982901355</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>2.76184230891006</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.249409191186787</v>
+        <v>7.24940919118679</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.508260688514083</v>
+        <v>2.010212371608972</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6742146491990454</v>
+        <v>-0.5244608326001665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.573746675547311</v>
+        <v>3.683445491678862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.189973572736872</v>
+        <v>2.344881243403996</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.415761869543424</v>
+        <v>1.461235240360073</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.973570155513384</v>
+        <v>6.051748322092259</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.802053161460496</v>
+        <v>2.755040734792999</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.931156362462715</v>
+        <v>1.104729837307916</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.736449739760937</v>
+        <v>5.473341437279313</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.768944898081272</v>
+        <v>7.150708953441579</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.762651486263383</v>
+        <v>3.697062279310289</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.229916832953307</v>
+        <v>8.226218425921937</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.388960055110254</v>
+        <v>7.369432467916266</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.632544359929071</v>
+        <v>7.015434158464656</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.81947408569045</v>
+        <v>10.81937090632497</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.233716133761908</v>
+        <v>6.423990489164964</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.375002844663674</v>
+        <v>4.663872927663217</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.893179307307729</v>
+        <v>8.759290887945818</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2071973778268425</v>
+        <v>0.2768234387790988</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.105256538471606</v>
+        <v>-0.0903024357706749</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4550471307944947</v>
+        <v>0.491318149954777</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2669562711347664</v>
+        <v>0.2996214427837558</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1613914116716366</v>
+        <v>0.1832469270496071</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7321317104953035</v>
+        <v>0.7039613663537514</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3889156030347519</v>
+        <v>0.3685515757267568</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1354997510127365</v>
+        <v>0.1526987611689119</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.8097489322977927</v>
+        <v>0.7305358707743894</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.282395375198183</v>
+        <v>1.391679945280444</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7498061172154648</v>
+        <v>0.7293150855884786</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.637264084188653</v>
+        <v>1.609381187763241</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.261722804739189</v>
+        <v>1.29596149001939</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.185100303602108</v>
+        <v>1.163706473018361</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.968669456507363</v>
+        <v>1.919364945813835</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.108201870393873</v>
+        <v>1.116763515824394</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7942319862529745</v>
+        <v>0.8291386305746936</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.590029995868703</v>
+        <v>1.575525794015002</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.179985886248689</v>
+        <v>3.153716880906111</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.306586335688661</v>
+        <v>2.296470179444824</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.889563014438545</v>
+        <v>4.871973067579218</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.927788764660521</v>
+        <v>2.747390970804986</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.677669653995973</v>
+        <v>1.782450689348924</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.722241981983939</v>
+        <v>4.759499512665812</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.475661726255159</v>
+        <v>3.450782855205101</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.298887937556774</v>
+        <v>2.345650197702372</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.206810586461301</v>
+        <v>5.173633753276334</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.818996715886779</v>
+        <v>5.846179151073374</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.823648873216966</v>
+        <v>4.844528449967989</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.378570171762864</v>
+        <v>7.447610190620944</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.873691305936384</v>
+        <v>5.75815203945176</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.601390812758085</v>
+        <v>4.637162218923409</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.295960473432266</v>
+        <v>7.249643176473519</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.502844101198869</v>
+        <v>5.4739940814287</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.205142030226215</v>
+        <v>4.258149790157123</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.026317433606426</v>
+        <v>7.058596109887162</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4872328937839039</v>
+        <v>0.4913598367058982</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3657300742306715</v>
+        <v>0.3665329125344056</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7538041699755637</v>
+        <v>0.7514022585247061</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3404342500743697</v>
+        <v>0.3135727786168055</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1941004419552707</v>
+        <v>0.200824536419486</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5347075045712432</v>
+        <v>0.552106100874871</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4844033222735818</v>
+        <v>0.465414065247253</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.3093209466297671</v>
+        <v>0.3157683392436028</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7172058749322908</v>
+        <v>0.6990210650369273</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.103449690597651</v>
+        <v>1.10284452246118</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9337954324719424</v>
+        <v>0.9061728044949688</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.42366682624409</v>
+        <v>1.441250420583597</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7948494763732673</v>
+        <v>0.7883760070956185</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6442888073058989</v>
+        <v>0.625687894321299</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.013999835665136</v>
+        <v>1.03768573898426</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8553800983568091</v>
+        <v>0.8592068213564386</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.6494959226710142</v>
+        <v>0.6656136031683622</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.103959777697377</v>
+        <v>1.106076995163356</v>
       </c>
     </row>
     <row r="34">
